--- a/23. Matrizes de Rastreabilidade (Características x SSS_ incompleto).xlsx
+++ b/23. Matrizes de Rastreabilidade (Características x SSS_ incompleto).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsociety\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\faculdade\engenhariaRequisitos\Eng-Soft-EC2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
   <si>
     <t>Car 0001</t>
   </si>
@@ -104,166 +104,289 @@
     <t>Car 0026</t>
   </si>
   <si>
-    <t>SS1-001</t>
-  </si>
-  <si>
-    <t>SS1-002</t>
-  </si>
-  <si>
-    <t>SS2-001</t>
-  </si>
-  <si>
-    <t>SS2-002</t>
-  </si>
-  <si>
-    <t>SS2-003</t>
-  </si>
-  <si>
-    <t>SS3-001</t>
-  </si>
-  <si>
-    <t>SS3-002</t>
-  </si>
-  <si>
-    <t>SS4-001</t>
-  </si>
-  <si>
-    <t>SS4-002</t>
-  </si>
-  <si>
-    <t>SS5-001</t>
-  </si>
-  <si>
-    <t>SS5-002</t>
-  </si>
-  <si>
-    <t>SS5-003</t>
-  </si>
-  <si>
-    <t>SS6-001</t>
-  </si>
-  <si>
-    <t>SS6-002</t>
-  </si>
-  <si>
-    <t>SS7-001</t>
-  </si>
-  <si>
-    <t>SS8-001</t>
-  </si>
-  <si>
-    <t>SS9-001</t>
-  </si>
-  <si>
-    <t>S10-001</t>
-  </si>
-  <si>
-    <t>S10-002</t>
-  </si>
-  <si>
-    <t>S11-001</t>
-  </si>
-  <si>
-    <t>S11-002</t>
-  </si>
-  <si>
-    <t>S12-001</t>
-  </si>
-  <si>
-    <t>S13-001</t>
-  </si>
-  <si>
-    <t>S13-002</t>
-  </si>
-  <si>
-    <t>S14-001</t>
-  </si>
-  <si>
-    <t>S15-001</t>
-  </si>
-  <si>
-    <t>S16-001</t>
-  </si>
-  <si>
-    <t>S17-001</t>
-  </si>
-  <si>
-    <t>S18-001</t>
-  </si>
-  <si>
-    <t>S20-001</t>
-  </si>
-  <si>
-    <t>S20-002</t>
-  </si>
-  <si>
-    <t>S21-001</t>
-  </si>
-  <si>
-    <t>S22-001</t>
-  </si>
-  <si>
-    <t>S23-001</t>
-  </si>
-  <si>
-    <t>S24-001</t>
-  </si>
-  <si>
-    <t>S25-001</t>
-  </si>
-  <si>
-    <t>S26-001</t>
-  </si>
-  <si>
-    <t>S26-002</t>
-  </si>
-  <si>
-    <t>S27-001</t>
-  </si>
-  <si>
-    <t>S28-001</t>
-  </si>
-  <si>
-    <t>S29-001</t>
-  </si>
-  <si>
-    <t>S30-001</t>
-  </si>
-  <si>
-    <t>S31-001</t>
-  </si>
-  <si>
-    <t>S32-001</t>
-  </si>
-  <si>
-    <t>S33-001</t>
-  </si>
-  <si>
-    <t>S34-001</t>
-  </si>
-  <si>
-    <t>S35-001</t>
-  </si>
-  <si>
-    <t>S36-001</t>
-  </si>
-  <si>
-    <t>S37-001</t>
-  </si>
-  <si>
-    <t>S38-001</t>
-  </si>
-  <si>
-    <t>S38-002</t>
-  </si>
-  <si>
-    <t>S39-001</t>
-  </si>
-  <si>
-    <t>S40-001</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>SSS-01-001</t>
+  </si>
+  <si>
+    <t>SSS-01-002</t>
+  </si>
+  <si>
+    <t>SSS-02-001</t>
+  </si>
+  <si>
+    <t>SSS-02-002</t>
+  </si>
+  <si>
+    <t>SSS-02-003</t>
+  </si>
+  <si>
+    <t>SSS-03-001</t>
+  </si>
+  <si>
+    <t>SSS-03-002</t>
+  </si>
+  <si>
+    <t>SSS-04-001</t>
+  </si>
+  <si>
+    <t>SSS-04-002</t>
+  </si>
+  <si>
+    <t>SSS-05-001</t>
+  </si>
+  <si>
+    <t>SSS-05-002</t>
+  </si>
+  <si>
+    <t>SSS-05-003</t>
+  </si>
+  <si>
+    <t>SSS-05-004</t>
+  </si>
+  <si>
+    <t>SSS-06-001</t>
+  </si>
+  <si>
+    <t>SSS-06-002</t>
+  </si>
+  <si>
+    <t>SSS-06-003</t>
+  </si>
+  <si>
+    <t>SSS-07-001</t>
+  </si>
+  <si>
+    <t>SSS-07-002</t>
+  </si>
+  <si>
+    <t>SSS-08-001</t>
+  </si>
+  <si>
+    <t>SSS-08-002</t>
+  </si>
+  <si>
+    <t>SSS-08-003</t>
+  </si>
+  <si>
+    <t>SSS-09-001</t>
+  </si>
+  <si>
+    <t>SSS-09-002</t>
+  </si>
+  <si>
+    <t>SSS-09-003</t>
+  </si>
+  <si>
+    <t>SSS-10-001</t>
+  </si>
+  <si>
+    <t>SSS-10-002</t>
+  </si>
+  <si>
+    <t>SSS-10-003</t>
+  </si>
+  <si>
+    <t>SSS-11-001</t>
+  </si>
+  <si>
+    <t>SSS-11004</t>
+  </si>
+  <si>
+    <t>SSS-12-002</t>
+  </si>
+  <si>
+    <t>SSS-12-003</t>
+  </si>
+  <si>
+    <t>SSS-13-003</t>
+  </si>
+  <si>
+    <t>SSS-14-002</t>
+  </si>
+  <si>
+    <t>SSS-15-002</t>
+  </si>
+  <si>
+    <t>SSS-16-001</t>
+  </si>
+  <si>
+    <t>SSS-16-003</t>
+  </si>
+  <si>
+    <t>SSS-19-001</t>
+  </si>
+  <si>
+    <t>SSS-19-003</t>
+  </si>
+  <si>
+    <t>SSS-22-001</t>
+  </si>
+  <si>
+    <t>SSS-24-001</t>
+  </si>
+  <si>
+    <t>SSS-25-001</t>
+  </si>
+  <si>
+    <t>SSS-27-001</t>
+  </si>
+  <si>
+    <t>SSS-28-002</t>
+  </si>
+  <si>
+    <t>SSS-29-001</t>
+  </si>
+  <si>
+    <t>SSS-29-003</t>
+  </si>
+  <si>
+    <t>SSS-30-001</t>
+  </si>
+  <si>
+    <t>SSS-31-001</t>
+  </si>
+  <si>
+    <t>SSS-31-002</t>
+  </si>
+  <si>
+    <t>SSS-32-001</t>
+  </si>
+  <si>
+    <t>SSS-33-001</t>
+  </si>
+  <si>
+    <t>SSS-34-001</t>
+  </si>
+  <si>
+    <t>SSS-34-002</t>
+  </si>
+  <si>
+    <t>SSS-34-003</t>
+  </si>
+  <si>
+    <t>SSS-36-001</t>
+  </si>
+  <si>
+    <t>SSS-37-001</t>
+  </si>
+  <si>
+    <t>SSS-38-002</t>
+  </si>
+  <si>
+    <t>SSS-38-003</t>
+  </si>
+  <si>
+    <t>SSS-39-001</t>
+  </si>
+  <si>
+    <t>SSS-40-002</t>
+  </si>
+  <si>
+    <t>SSS-11-002</t>
+  </si>
+  <si>
+    <t>SSS-11-003</t>
+  </si>
+  <si>
+    <t>SSS-12-001</t>
+  </si>
+  <si>
+    <t>SSS-13-001</t>
+  </si>
+  <si>
+    <t>SSS-13-002</t>
+  </si>
+  <si>
+    <t>SSS-14-001</t>
+  </si>
+  <si>
+    <t>SSS-15-001</t>
+  </si>
+  <si>
+    <t>SSS-16-002</t>
+  </si>
+  <si>
+    <t>SSS-17-001</t>
+  </si>
+  <si>
+    <t>SSS-18-001</t>
+  </si>
+  <si>
+    <t>SSS-19-002</t>
+  </si>
+  <si>
+    <t>SSS-20-001</t>
+  </si>
+  <si>
+    <t>SSS-20-002</t>
+  </si>
+  <si>
+    <t>SSS-21-001</t>
+  </si>
+  <si>
+    <t>SSS-22-002</t>
+  </si>
+  <si>
+    <t>SSS-23-001</t>
+  </si>
+  <si>
+    <t>SSS-24-002</t>
+  </si>
+  <si>
+    <t>SSS-25-002</t>
+  </si>
+  <si>
+    <t>SSS-26-001</t>
+  </si>
+  <si>
+    <t>SSS-26-002</t>
+  </si>
+  <si>
+    <t>SSS-27-002</t>
+  </si>
+  <si>
+    <t>SSS-28-001</t>
+  </si>
+  <si>
+    <t>SSS-29-002</t>
+  </si>
+  <si>
+    <t>SSS-30-002</t>
+  </si>
+  <si>
+    <t>SSS-31-003</t>
+  </si>
+  <si>
+    <t>SSS-32-002</t>
+  </si>
+  <si>
+    <t>SSS-33-002</t>
+  </si>
+  <si>
+    <t>SSS-34-004</t>
+  </si>
+  <si>
+    <t>SSS-35-001</t>
+  </si>
+  <si>
+    <t>SSS-36-002</t>
+  </si>
+  <si>
+    <t>SSS-37-002</t>
+  </si>
+  <si>
+    <t>SSS-38-001</t>
+  </si>
+  <si>
+    <t>SSS-38-004</t>
+  </si>
+  <si>
+    <t>SSS-39-002</t>
+  </si>
+  <si>
+    <t>SSS-40-001</t>
   </si>
 </sst>
 </file>
@@ -299,7 +422,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -322,11 +445,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -337,6 +473,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,17 +770,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -709,9 +862,9 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -722,7 +875,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -742,15 +895,15 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -775,9 +928,9 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -795,7 +948,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -808,9 +961,9 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -825,7 +978,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -841,9 +994,9 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -872,9 +1025,9 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -886,7 +1039,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -905,9 +1058,9 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -915,7 +1068,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -938,13 +1091,13 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -971,15 +1124,15 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1004,10 +1157,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1037,12 +1190,12 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1070,11 +1223,11 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1103,14 +1256,14 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1136,16 +1289,16 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1169,9 +1322,9 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1180,7 +1333,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1202,9 +1355,9 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1214,7 +1367,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1235,9 +1388,9 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1250,7 +1403,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1268,9 +1421,9 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1286,7 +1439,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
@@ -1301,9 +1454,9 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1317,7 +1470,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1334,9 +1487,9 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1353,7 +1506,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -1367,9 +1520,9 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1388,7 +1541,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -1400,9 +1553,9 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1428,14 +1581,14 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1457,7 +1610,7 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
@@ -1466,9 +1619,9 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1491,7 +1644,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -1499,9 +1652,9 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1521,7 +1674,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -1532,9 +1685,9 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1555,21 +1708,21 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1594,15 +1747,15 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1613,7 +1766,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1633,9 +1786,9 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1646,7 +1799,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1666,9 +1819,9 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1677,7 +1830,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -1701,12 +1854,12 @@
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1732,11 +1885,11 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1765,9 +1918,9 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1782,7 +1935,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -1798,9 +1951,9 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1822,7 +1975,7 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -1831,9 +1984,9 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="B36" s="7"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1851,7 +2004,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -1864,9 +2017,9 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1878,7 +2031,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -1897,9 +2050,9 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1925,14 +2078,14 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1956,16 +2109,16 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1985,7 +2138,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -1996,9 +2149,9 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2014,7 +2167,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -2029,9 +2182,9 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2044,7 +2197,7 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -2062,21 +2215,21 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B43" s="7"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2097,9 +2250,9 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="B44" s="7"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2124,15 +2277,15 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B45" s="7"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2155,7 +2308,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -2163,9 +2316,9 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="B46" s="7"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2184,7 +2337,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -2196,9 +2349,9 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="B47" s="7"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2212,7 +2365,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -2229,12 +2382,12 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2262,15 +2415,15 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2295,10 +2448,10 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2328,9 +2481,9 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B51" s="7"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2338,7 +2491,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -2361,9 +2514,9 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2373,7 +2526,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -2394,9 +2547,9 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B53" s="7"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2411,7 +2564,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -2427,9 +2580,9 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2448,7 +2601,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -2460,9 +2613,9 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="B55" s="7"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2474,7 +2627,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2491,6 +2644,1359 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+      <c r="Z78" s="10"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+      <c r="Z81" s="10"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z82" s="10"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+      <c r="Z83" s="10"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+      <c r="Z84" s="10"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+      <c r="Z85" s="10"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+      <c r="Z86" s="10"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+      <c r="Z88" s="10"/>
+      <c r="AA88" s="10"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+      <c r="Z89" s="10"/>
+      <c r="AA89" s="10"/>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="10"/>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+      <c r="Z91" s="10"/>
+      <c r="AA91" s="10"/>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+      <c r="Z92" s="10"/>
+      <c r="AA92" s="10"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+      <c r="Z93" s="10"/>
+      <c r="AA93" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
